--- a/timeSheet.xlsx
+++ b/timeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="19">
   <si>
     <t>|</t>
   </si>
@@ -51,16 +51,31 @@
     <t>1. Cool Disco App-                                             a.) Lollipop UI fix- back complatible.          b.) UI Hang fix by retaining the previous state of fragment.                                            c.) UI Hang fix in Gallery by Gallery image update later</t>
   </si>
   <si>
-    <t>||||||||||||||</t>
-  </si>
-  <si>
     <t>1. Cool Disco App-                                             a.) Tried to retain the previous state of the Fragment. onSaveInstance not working as expected.</t>
   </si>
   <si>
-    <t>2. Quantaum PowerPack                                 a.) UI design Started                                        b.) Edit section left                                          c.) Backed remains</t>
-  </si>
-  <si>
     <t>2. AlarmOnKivy                                                 a.)  KeyBoard Error After Destroying-Fix b.) Helping Jawla in Alarm sensing</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||</t>
+  </si>
+  <si>
+    <t>2. Quantum PowerPak                                   a.) UI design Started                                        b.) Edit section left                                          c.) Backed remains</t>
+  </si>
+  <si>
+    <t>1. Quantum PowePak-                                             a.) Functionality Finally done.                     b.) Testing Done.                                                         c.) Bluetooth is autoconnecting to the Raspberry Pi.                                                     d.)  Successfully sending data to the Raspberry Pi.                                                     e.) Needs to be tested with the WX UI design.</t>
+  </si>
+  <si>
+    <t>1. eMeMate App-                                             a.) App Not Showing All Rooms-Fixed.                     b.) Doubling of the Rooms-Fixed.                                                         c.) Dynamic IP Address Working.                                                    d.) Email and Password are added in the code.</t>
+  </si>
+  <si>
+    <t>1. Cool Disco App-                                                   a.) UI all set this the color scheme.               b.) Showing Events according to the date.          c.) Links, email and numbers are clickable.                                                             d.) All the albums and photos are being loaded in the app.                                                e.) Introduced a loading icon during the loading process.                                                     f.) App hangs during the image loading process-needs to be fixed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. AlarmOnKivy-                                               a.) Tried to fix the Autoconnect problem in the Raspi 3-Problem still there.                     b.) No autoconnect problem with Raspi 2.                                                         </t>
+  </si>
+  <si>
+    <t>2. Quantum PowerPak                                   a.) Database is complete.                                       b.) Able to retrieve the state of the Leds                             c.) Edit section is complete and working great.</t>
   </si>
 </sst>
 </file>
@@ -393,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.85546875" style="1" customWidth="1"/>
@@ -415,10 +430,17 @@
     <col min="12" max="12" width="2.85546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="36.85546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="2.85546875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="36.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="2.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="36.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="36.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="2.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="39.28515625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>42614</v>
       </c>
@@ -461,52 +483,94 @@
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="O1" s="3">
+        <v>42625</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>42626</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="3">
+        <v>42627</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="3">
+        <v>42628</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -527,19 +591,31 @@
         <v>4</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="P3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -561,8 +637,17 @@
       <c r="N4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="P4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -582,6 +667,15 @@
         <v>1</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/timeSheet.xlsx
+++ b/timeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="25">
   <si>
     <t>|</t>
   </si>
@@ -27,21 +27,6 @@
     <t>||||||||||</t>
   </si>
   <si>
-    <t>1. Tried to fix Date Calender issue</t>
-  </si>
-  <si>
-    <t>1. Cool Disco app -                                               a.) Fetching Album Info                                     b.) Gallery Creation(not Complete)</t>
-  </si>
-  <si>
-    <t>||||||||||||</t>
-  </si>
-  <si>
-    <t>2. Cool Disco app -                                                             a.) View Pager Creation                                               b.) Fragment Conversion                                             c.) Tabs Handling</t>
-  </si>
-  <si>
-    <t>1. Cool Disco app-                                                          a.) Gallery Creation Complete                              b.) Cool Radio(Started)</t>
-  </si>
-  <si>
     <t>1. Cool Disco App-                                             a.) Cool Radio UI complete                      b.) Backend Partially completed</t>
   </si>
   <si>
@@ -54,12 +39,6 @@
     <t>1. Cool Disco App-                                             a.) Tried to retain the previous state of the Fragment. onSaveInstance not working as expected.</t>
   </si>
   <si>
-    <t>2. AlarmOnKivy                                                 a.)  KeyBoard Error After Destroying-Fix b.) Helping Jawla in Alarm sensing</t>
-  </si>
-  <si>
-    <t>||||||||||||||||||||||</t>
-  </si>
-  <si>
     <t>2. Quantum PowerPak                                   a.) UI design Started                                        b.) Edit section left                                          c.) Backed remains</t>
   </si>
   <si>
@@ -72,10 +51,49 @@
     <t>1. Cool Disco App-                                                   a.) UI all set this the color scheme.               b.) Showing Events according to the date.          c.) Links, email and numbers are clickable.                                                             d.) All the albums and photos are being loaded in the app.                                                e.) Introduced a loading icon during the loading process.                                                     f.) App hangs during the image loading process-needs to be fixed.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. AlarmOnKivy-                                               a.) Tried to fix the Autoconnect problem in the Raspi 3-Problem still there.                     b.) No autoconnect problem with Raspi 2.                                                         </t>
-  </si>
-  <si>
     <t>2. Quantum PowerPak                                   a.) Database is complete.                                       b.) Able to retrieve the state of the Leds                             c.) Edit section is complete and working great.</t>
+  </si>
+  <si>
+    <t>1. Attended meeting about Alexa - Voice Service - Free APIs for voice query-response.</t>
+  </si>
+  <si>
+    <t>1. Cool Disco App-                                                   a.) Updates in the UI.                                            b.) Crash During the Frequent Tab change is fixed.                                                                            c.) Radio Fragment needs Fix - After tab change, no yellow color to current song.                                                             d.) Bottom dots needed according to AgendaPageFragments.</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||||||||||||||||</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||</t>
+  </si>
+  <si>
+    <t>2. Cool Disco App-                                                 a.) Hang fix during the Album Loading.</t>
+  </si>
+  <si>
+    <t>3. Quantum PowerPak-                                         a.) Got Issue with the Marshmellow devices during the scanning process.                                      b.) Tried to fix the issue.</t>
+  </si>
+  <si>
+    <t>1. Quantum PowerPak-                                       a.) Tried different scanning procedure for the L and M devices. BluetoothLeScanner is not working expected.                                       b.) Old procedure got fixed with the M devices.                                                                     c.) Status about the connection is added to the UI.                                                                        d.) Testing with the WX UI is done.                   e.) Demo Video ready.                                        f.) Status about connection is quite buggy in app. Needs Fix.</t>
+  </si>
+  <si>
+    <t>2. Cool Disco App -                                                             a.) View Pager Creation                                               b.) Fragment Conversion                                             c.) Tabs Handling</t>
+  </si>
+  <si>
+    <t>1. Cool Disco App -                                               a.) Fetching Album Info                                     b.) Gallery Creation(not Complete)</t>
+  </si>
+  <si>
+    <t>1. Cool Disco App-                                                          a.) Gallery Creation Complete                              b.) Cool Radio(Started)</t>
+  </si>
+  <si>
+    <t>1. AlarmOnKivy-                               a.)Tried to fix Date Calender issue</t>
+  </si>
+  <si>
+    <t>2. AlarmOnWx                                                   a.)  KeyBoard Error After Destroying-Fix b.) Helping Jawla in Alarm sensing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. AlarmOnWx-                                                  a.) Tried to fix the Autoconnect problem in the Raspi 3-Problem still there.                     b.) No autoconnect problem with Raspi 2.                                                         </t>
   </si>
 </sst>
 </file>
@@ -408,11 +426,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -437,10 +453,14 @@
     <col min="19" max="19" width="36.85546875" style="1" customWidth="1"/>
     <col min="20" max="20" width="2.85546875" style="1" customWidth="1"/>
     <col min="21" max="21" width="39.28515625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="22" max="22" width="2.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="39.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="2.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="39.28515625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>42614</v>
       </c>
@@ -504,118 +524,154 @@
       <c r="U1" s="3">
         <v>42628</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="3">
+        <v>42629</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>42630</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="T2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>16</v>
+      <c r="V2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -646,37 +702,52 @@
       <c r="T4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="V4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/timeSheet.xlsx
+++ b/timeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="28">
   <si>
     <t>|</t>
   </si>
@@ -27,39 +27,9 @@
     <t>||||||||||</t>
   </si>
   <si>
-    <t>1. Cool Disco App-                                             a.) Cool Radio UI complete                      b.) Backend Partially completed</t>
-  </si>
-  <si>
-    <t>1. Cool Disco App-                                                  a.) Tried to fix hang problem in the Gallery                                 b.) Cool Radio Backend Done-PlayNext and Previous left</t>
-  </si>
-  <si>
-    <t>1. Cool Disco App-                                             a.) Lollipop UI fix- back complatible.          b.) UI Hang fix by retaining the previous state of fragment.                                            c.) UI Hang fix in Gallery by Gallery image update later</t>
-  </si>
-  <si>
-    <t>1. Cool Disco App-                                             a.) Tried to retain the previous state of the Fragment. onSaveInstance not working as expected.</t>
-  </si>
-  <si>
-    <t>2. Quantum PowerPak                                   a.) UI design Started                                        b.) Edit section left                                          c.) Backed remains</t>
-  </si>
-  <si>
-    <t>1. Quantum PowePak-                                             a.) Functionality Finally done.                     b.) Testing Done.                                                         c.) Bluetooth is autoconnecting to the Raspberry Pi.                                                     d.)  Successfully sending data to the Raspberry Pi.                                                     e.) Needs to be tested with the WX UI design.</t>
-  </si>
-  <si>
-    <t>1. eMeMate App-                                             a.) App Not Showing All Rooms-Fixed.                     b.) Doubling of the Rooms-Fixed.                                                         c.) Dynamic IP Address Working.                                                    d.) Email and Password are added in the code.</t>
-  </si>
-  <si>
-    <t>1. Cool Disco App-                                                   a.) UI all set this the color scheme.               b.) Showing Events according to the date.          c.) Links, email and numbers are clickable.                                                             d.) All the albums and photos are being loaded in the app.                                                e.) Introduced a loading icon during the loading process.                                                     f.) App hangs during the image loading process-needs to be fixed.</t>
-  </si>
-  <si>
-    <t>2. Quantum PowerPak                                   a.) Database is complete.                                       b.) Able to retrieve the state of the Leds                             c.) Edit section is complete and working great.</t>
-  </si>
-  <si>
     <t>1. Attended meeting about Alexa - Voice Service - Free APIs for voice query-response.</t>
   </si>
   <si>
-    <t>1. Cool Disco App-                                                   a.) Updates in the UI.                                            b.) Crash During the Frequent Tab change is fixed.                                                                            c.) Radio Fragment needs Fix - After tab change, no yellow color to current song.                                                             d.) Bottom dots needed according to AgendaPageFragments.</t>
-  </si>
-  <si>
     <t>||||||||||||||||||||||||||</t>
   </si>
   <si>
@@ -69,31 +39,137 @@
     <t>||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||</t>
   </si>
   <si>
-    <t>2. Cool Disco App-                                                 a.) Hang fix during the Album Loading.</t>
-  </si>
-  <si>
-    <t>3. Quantum PowerPak-                                         a.) Got Issue with the Marshmellow devices during the scanning process.                                      b.) Tried to fix the issue.</t>
-  </si>
-  <si>
-    <t>1. Quantum PowerPak-                                       a.) Tried different scanning procedure for the L and M devices. BluetoothLeScanner is not working expected.                                       b.) Old procedure got fixed with the M devices.                                                                     c.) Status about the connection is added to the UI.                                                                        d.) Testing with the WX UI is done.                   e.) Demo Video ready.                                        f.) Status about connection is quite buggy in app. Needs Fix.</t>
-  </si>
-  <si>
-    <t>2. Cool Disco App -                                                             a.) View Pager Creation                                               b.) Fragment Conversion                                             c.) Tabs Handling</t>
-  </si>
-  <si>
-    <t>1. Cool Disco App -                                               a.) Fetching Album Info                                     b.) Gallery Creation(not Complete)</t>
-  </si>
-  <si>
-    <t>1. Cool Disco App-                                                          a.) Gallery Creation Complete                              b.) Cool Radio(Started)</t>
-  </si>
-  <si>
-    <t>1. AlarmOnKivy-                               a.)Tried to fix Date Calender issue</t>
-  </si>
-  <si>
-    <t>2. AlarmOnWx                                                   a.)  KeyBoard Error After Destroying-Fix b.) Helping Jawla in Alarm sensing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. AlarmOnWx-                                                  a.) Tried to fix the Autoconnect problem in the Raspi 3-Problem still there.                     b.) No autoconnect problem with Raspi 2.                                                         </t>
+    <t>1. Cool Disco App-
+a.) Tried to fix hang problem in the Gallery.
+b.) Cool Radio Backend Done-PlayNext and Previous left.</t>
+  </si>
+  <si>
+    <t>1. AlarmOnKivy-
+a.)Tried to fix Date Calender issue.</t>
+  </si>
+  <si>
+    <t>2. Cool Disco App -
+a.) View Pager Creation.
+b.) Fragment Conversion.
+c.) Tabs Handling.</t>
+  </si>
+  <si>
+    <t>1. Cool Disco App -
+a.) Fetching Album Info.
+b.) Gallery Creation(not Complete).</t>
+  </si>
+  <si>
+    <t>1. Cool Disco App-
+a.) Gallery Creation Complete.
+b.) Cool Radio(Started).</t>
+  </si>
+  <si>
+    <t>1. Cool Disco App-
+a.) Cool Radio UI complete.
+b.) Backend Partially completed.</t>
+  </si>
+  <si>
+    <t>1. Cool Disco App-
+a.) Tried to retain the previous state of the Fragment. onSaveInstance not working as expected.</t>
+  </si>
+  <si>
+    <t>2. Quantum PowerPak-
+a.) UI design Started.
+b.) Edit section left.
+c.) Backed remains.</t>
+  </si>
+  <si>
+    <t>1. Cool Disco App-
+a.) Lollipop UI fix- back complatible.
+b.) UI Hang fix by retaining the previous state of fragment.
+c.) UI Hang fix in Gallery by Gallery image update later.</t>
+  </si>
+  <si>
+    <t>2. AlarmOnWx-
+a.)  KeyBoard Error After Destroying-Fixed.
+b.) Helping Jawla in Alarm sensing.</t>
+  </si>
+  <si>
+    <t>1. eMeMate App-
+a.) App Not Showing All Rooms-Fixed.
+b.) Doubling of the Rooms-Fixed.
+c.) Dynamic IP Address Working.
+d.) Email and Password are added in the code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. AlarmOnWx-
+a.) Tried to fix the Autoconnect problem in the Raspi 3-Problem still there.
+b.) No autoconnect problem with Raspi 2.                                                         </t>
+  </si>
+  <si>
+    <t>2. Quantum PowerPak-
+a.) Database is complete.
+b.) Able to retrieve the state of the Leds.
+c.) Edit section is complete and working great.</t>
+  </si>
+  <si>
+    <t>1. Quantum PowePak-
+a.) Functionality Finally done.
+b.) Testing Done.
+c.) Bluetooth is autoconnecting to the Raspberry Pi.                                                     d.)  Successfully sending data to the Raspberry Pi.
+e.) Needs to be tested with the WX UI design.</t>
+  </si>
+  <si>
+    <t>1. Cool Disco App-
+a.) UI all set this the color scheme.
+b.) Showing Events according to the date.
+c.) Links, email and numbers are clickable.
+d.) All the albums and photos are being loaded in the app.
+e.) Introduced a loading icon during the loading process.
+f.) App hangs during the image loading process-needs to be fixed.</t>
+  </si>
+  <si>
+    <t>2. Cool Disco App-
+a.) Hang fix during the Album Loading.</t>
+  </si>
+  <si>
+    <t>3. Quantum PowerPak-
+a.) Got Issue with the Marshmellow devices during the scanning process.
+b.) Tried to fix the issue.</t>
+  </si>
+  <si>
+    <t>1. Quantum PowerPak-
+a.) Tried different scanning procedure for the L and M devices. BluetoothLeScanner is not working expected.
+b.) Old procedure got fixed with the M devices.
+c.) Status about the connection is added to the UI.
+d.) Testing with the WX UI is done.
+e.) Demo Video ready.
+f.) Status about connection is quite buggy in app. Needs Fix.</t>
+  </si>
+  <si>
+    <t>1. Cool Disco App-
+a.) Updates in the UI.
+b.) Crash During the Frequent Tab change is fixed.
+c.) Radio Fragment needs Fix - After tab change, no yellow color to current song.
+d.) Bottom dots needed according to AgendaPageFragments.</t>
+  </si>
+  <si>
+    <t>1. Cool Disco App-
+a.) Bottom dots according to AgendaPageFragment counts.
+b.) Some changes to UI to make it similar to iOS.
+c.) Added dots to album name when it exceeds the view of the screen.
+d.) Postal code fix in ContactFragment.
+e.) Show yesterday event also fixed.
+f.) Reverse order of the events.</t>
+  </si>
+  <si>
+    <t>1. Cool Disco App-
+a.) Inside Galleray Delay Fix. Loading Icon Added.
+b.) Loading Icon Add in the Radio During Music Prepare.
+c.) Splash Image Added.
+d.) Icon Added to the launcher.
+e.) Added a Tweak with 10 taps to About page.</t>
+  </si>
+  <si>
+    <t>2. Quantum PowerPak-
+a.) All Done with the functionality.
+b.) Change Pin functionality added.
+c.) Showing correct connection status of the bluetooth.</t>
   </si>
 </sst>
 </file>
@@ -426,9 +502,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Z2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -457,10 +535,17 @@
     <col min="23" max="23" width="39.28515625" style="1" customWidth="1"/>
     <col min="24" max="24" width="2.85546875" style="1" customWidth="1"/>
     <col min="25" max="25" width="39.28515625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="26" max="26" width="2.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="39.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="2.85546875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="39.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="2.85546875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="39.28515625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="2.85546875" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>42614</v>
       </c>
@@ -536,142 +621,194 @@
       <c r="Y1" s="3">
         <v>42630</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>42631</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>42632</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="V2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="X2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -706,48 +843,72 @@
         <v>1</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="Z4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/timeSheet.xlsx
+++ b/timeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="41">
   <si>
     <t>|</t>
   </si>
@@ -170,6 +170,66 @@
 a.) All Done with the functionality.
 b.) Change Pin functionality added.
 c.) Showing correct connection status of the bluetooth.</t>
+  </si>
+  <si>
+    <t>1. Cool Disco App-
+a.) Zoom Images in Gallery Section</t>
+  </si>
+  <si>
+    <t>2. AlarmOnWx-
+a.) Arne Bug Fixes</t>
+  </si>
+  <si>
+    <t>2.) eMeMate App-
+a.) Added devices name inside the rooms.</t>
+  </si>
+  <si>
+    <t>1. Cool Disco App-
+a.) Tried Share option in Gallery Detail Activity.</t>
+  </si>
+  <si>
+    <t>2. AlarmOnWx-
+a.) Arne Bug Fixes
+b.) Almost Complete.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Pantelwar Automation-
+a.) UI in Progress
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. AlarmOnWx-
+a.) Arne Bug Fixes
+</t>
+  </si>
+  <si>
+    <t>3. Cexco-
+a.) Converted to Pygame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Pantelwar Automation-
+a.) Projected Started
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. eMeMate App-
+a.) Catergories Devices in rooms.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. eMeMate App-
+a.) Used Vera.json to get Devices and Rooms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Pantelwar Automation-
+a.) Networks API are attached to the new app.
+</t>
+  </si>
+  <si>
+    <t>2. AlarmOnWx-
+a.) Changes the Network spread timer to 120sec according to the requirement.
+b.) Created a demo video of the project.</t>
   </si>
 </sst>
 </file>
@@ -502,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+    <sheetView tabSelected="1" topLeftCell="AH3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO4" sqref="AO4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,10 +602,19 @@
     <col min="30" max="30" width="2.85546875" style="1" customWidth="1"/>
     <col min="31" max="31" width="39.28515625" style="1" customWidth="1"/>
     <col min="32" max="32" width="2.85546875" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="33" max="33" width="39.28515625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="2.85546875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="33.28515625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="2.85546875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="30" style="1" customWidth="1"/>
+    <col min="38" max="38" width="2.85546875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="26" style="1" customWidth="1"/>
+    <col min="40" max="40" width="2.85546875" style="1" customWidth="1"/>
+    <col min="41" max="41" width="39.5703125" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>42614</v>
       </c>
@@ -636,12 +705,41 @@
       <c r="AD1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AE1" s="3"/>
+      <c r="AE1" s="3">
+        <v>42638</v>
+      </c>
       <c r="AF1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG1" s="3">
+        <v>42639</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="3">
+        <v>42640</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="3">
+        <v>42641</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="3">
+        <v>42642</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="3">
+        <v>42643</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -732,11 +830,41 @@
       <c r="AD2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="AE2" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="AF2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="AG2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -804,11 +932,38 @@
       <c r="AD3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AE3" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="AF3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AG3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -857,11 +1012,29 @@
       <c r="AD4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="AE4" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="AF4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="AH4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -908,6 +1081,18 @@
         <v>4</v>
       </c>
       <c r="AF5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
